--- a/AutomationFramework/excel_logs/hardware_test_hw_frequency_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_frequency_logs.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hw_component_frequency</t>
+          <t>hw_frequency</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>

--- a/AutomationFramework/excel_logs/hardware_test_hw_frequency_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_frequency_logs.xlsx
@@ -497,10 +497,48 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;get&gt;
+    &lt;filter type="subtree"&gt;
+      &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+        &lt;component&gt;
+          &lt;name&gt;OCH-1-1&lt;/name&gt;
+             &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+               &lt;config&gt;
+                 &lt;frequency&gt;&lt;/frequency&gt;
+               &lt;/config&gt;
+             &lt;/optical-channel&gt;
+        &lt;/component&gt;
+      &lt;/components&gt;
+    &lt;/filter&gt;
+&lt;/get&gt;</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:82560579-297c-4f64-bd8f-b47ad42417b5"
+ xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
+ ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
+ xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+ &lt;data&gt;
+  &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+   &lt;component&gt;
+    &lt;name&gt;OCH-1-1&lt;/name&gt;
+    &lt;optical-channel xmlns="http://openconfig.net/yang/terminal-device"&gt;
+     &lt;config&gt;
+      &lt;frequency&gt;192000000&lt;/frequency&gt;
+     &lt;/config&gt;
+    &lt;/optical-channel&gt;
+   &lt;/component&gt;
+  &lt;/components&gt;
+ &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
